--- a/TestResults/GeoOrgStdGraphQL.xlsx
+++ b/TestResults/GeoOrgStdGraphQL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="62">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -77,7 +77,154 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Total number of records matching between DB &amp; Response: 14, below are the test steps for this test case</t>
+    <t>Total number of records matching between DB &amp; Response: 29, below are the test steps for this test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: OrgTestG
+DB_orgStdCd: OrgTestG
+Response_orgStdNm: OrgTestNameG
+DB_orgStdNm: OrgTestNameG
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: Test_QC
+DB_orgStdCd: Test_QC
+Response_orgStdNm: DescAnpiC
+DB_orgStdNm: DescAnpiC
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: Special
+DB_orgStdCd: Special
+Response_orgStdNm: Special Organisation Testing
+DB_orgStdNm: Special Organisation Testing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: Test_QF
+DB_orgStdCd: Test_QF
+Response_orgStdNm: DescAnpiF
+DB_orgStdNm: DescAnpiF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: ISO
+DB_orgStdCd: ISO
+Response_orgStdNm: International Organization for Standardization
+DB_orgStdNm: International Organization for Standardization
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: OrgTest8
+DB_orgStdCd: OrgTest8
+Response_orgStdNm: Organisation Test8
+DB_orgStdNm: Organisation Test8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: OrgTest1
+DB_orgStdCd: OrgTest1
+Response_orgStdNm: Organisation Test
+DB_orgStdNm: Organisation Test
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: OrgTest2
+DB_orgStdCd: OrgTest2
+Response_orgStdNm: Organisation Test2
+DB_orgStdNm: Organisation Test2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: OrgTestF
+DB_orgStdCd: OrgTestF
+Response_orgStdNm: OrgTestNameF
+DB_orgStdNm: OrgTestNameF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: OrgTestB
+DB_orgStdCd: OrgTestB
+Response_orgStdNm: OrgTestNameB
+DB_orgStdNm: OrgTestNameB
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: OrgTestD
+DB_orgStdCd: OrgTestD
+Response_orgStdNm: OrgTestNameD
+DB_orgStdNm: OrgTestNameD
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: Test_QA
+DB_orgStdCd: Test_QA
+Response_orgStdNm: DescAnpi
+DB_orgStdNm: DescAnpi
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: Test_QD
+DB_orgStdCd: Test_QD
+Response_orgStdNm: DescAnpiD
+DB_orgStdNm: DescAnpiD
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: Test_QB
+DB_orgStdCd: Test_QB
+Response_orgStdNm: DescAnpiB
+DB_orgStdNm: DescAnpiB
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: Test_QE
+DB_orgStdCd: Test_QE
+Response_orgStdNm: DescAnpiE
+DB_orgStdNm: DescAnpiE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: Test_QH
+DB_orgStdCd: Test_QH
+Response_orgStdNm: DescAnpiH
+DB_orgStdNm: DescAnpiH
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: OrgTest7
+DB_orgStdCd: OrgTest7
+Response_orgStdNm: Organisation Test7
+DB_orgStdNm: Organisation Test7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: OrgTest3
+DB_orgStdCd: OrgTest3
+Response_orgStdNm: Organisation Test3
+DB_orgStdNm: Organisation Test3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: OrgTest5
+DB_orgStdCd: OrgTest5
+Response_orgStdNm: Organisation Test5
+DB_orgStdNm: Organisation Test5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: OrgTest9
+DB_orgStdCd: OrgTest9
+Response_orgStdNm: Organisation Test9
+DB_orgStdNm: Organisation Test9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: Test_QG
+DB_orgStdCd: Test_QG
+Response_orgStdNm: DescAnpiG
+DB_orgStdNm: DescAnpiG
+</t>
   </si>
   <si>
     <t xml:space="preserve">Response_orgStdCd: CLDR
@@ -87,73 +234,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_orgStdCd: Special
-DB_orgStdCd: Special
-Response_orgStdNm: Special Organisation Testing
-DB_orgStdNm: Special Organisation Testing
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_orgStdCd: OrgTest8
-DB_orgStdCd: OrgTest8
-Response_orgStdNm: Organisation Test8
-DB_orgStdNm: Organisation Test8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_orgStdCd: OrgTest1
-DB_orgStdCd: OrgTest1
-Response_orgStdNm: Organisation Test
-DB_orgStdNm: Organisation Test
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_orgStdCd: OrgTest2
-DB_orgStdCd: OrgTest2
-Response_orgStdNm: Organisation Test2
-DB_orgStdNm: Organisation Test2
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_orgStdCd: OrgTest7
-DB_orgStdCd: OrgTest7
-Response_orgStdNm: Organisation Test7
-DB_orgStdNm: Organisation Test7
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_orgStdCd: OrgTest3
-DB_orgStdCd: OrgTest3
-Response_orgStdNm: Organisation Test3
-DB_orgStdNm: Organisation Test3
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_orgStdCd: OrgTest5
-DB_orgStdCd: OrgTest5
-Response_orgStdNm: Organisation Test5
-DB_orgStdNm: Organisation Test5
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_orgStdCd: OrgTest9
-DB_orgStdCd: OrgTest9
-Response_orgStdNm: Organisation Test9
-DB_orgStdNm: Organisation Test9
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_orgStdCd: StdOrg
-DB_orgStdCd: StdOrg
-Response_orgStdNm: Std Organisation Test
-DB_orgStdNm: Std Organisation Test
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_orgStdCd: ISO
-DB_orgStdCd: ISO
-Response_orgStdNm: International Organization for Standardization
-DB_orgStdNm: International Organization for Standardization
+    <t xml:space="preserve">Response_orgStdCd: Test_Og10
+DB_orgStdCd: Test_Og10
+Response_orgStdNm: Organisation Test10
+DB_orgStdNm: Organisation Test10
 </t>
   </si>
   <si>
@@ -171,10 +255,31 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Response_orgStdCd: OrgTestA
+DB_orgStdCd: OrgTestA
+Response_orgStdNm: OrgTestNameA
+DB_orgStdNm: OrgTestNameA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: OrgTestC
+DB_orgStdCd: OrgTestC
+Response_orgStdNm: OrgTestNameC
+DB_orgStdNm: OrgTestNameC
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: OrgTestE
+DB_orgStdCd: OrgTestE
+Response_orgStdNm: OrgTestNameE
+DB_orgStdNm: OrgTestNameE
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Response_orgStdCd: TestOrg
 DB_orgStdCd: TestOrg
-Response_orgStdNm: Test organisation
-DB_orgStdNm: Test organisation
+Response_orgStdNm: 
+DB_orgStdNm: 
 </t>
   </si>
   <si>
@@ -188,7 +293,7 @@
 {
 	"query":"
 	{
-		  geopoliticalOrganizationStandards (orgStdCd : \"TestOrg\") 
+		  geopoliticalOrganizationStandards (orgStdCd : \"Special\") 
 		{
 			    organizationStandardCode    organizationStandardName  
 		}
@@ -197,6 +302,90 @@
   </si>
   <si>
     <t>Total number of records matching between DB &amp; Response: 1, below are the test steps for this test case</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Verify the error message when passing the multiple(2 attributes) invalid attribute names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"query":"
+	{
+		  geopoliticalOrganizationStandards (orgStdCd : \"Special\") 
+		{
+			    organizationStandardCodes1    organizationStandardNames1  
+		}
+	}"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_orgStdCd: Special
+</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"errors":
+		[
+			{
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'organizationStandardCodes1' in type 'GeoPoliticalOrganizationStandard' is undefined @ 'geopoliticalOrganizationStandards/organizationStandardCodes1'",
+				"path":null
+			},
+			{
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'organizationStandardNames1' in type 'GeoPoliticalOrganizationStandard' is undefined @ 'geopoliticalOrganizationStandards/organizationStandardNames1'",
+				"path":null
+			}
+		]
+	},
+	"data":null
+}</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify no results fetched when passing the invalid Geopolitical Org Std   parameters passed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"query":"
+	{
+		  geopoliticalOrganizationStandards (orgStdCd : \"xy\") 
+		{
+			    organizationStandardCode    organizationStandardName  
+		}
+	}"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"errors":
+		[
+		]
+	},
+	"data":
+	{
+		"geopoliticalOrganizationStandards":
+		[
+		]
+	}
+}</t>
   </si>
 </sst>
 </file>
@@ -204,7 +393,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="189">
+  <fonts count="376">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -217,6 +406,941 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1220,7 +2344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="376">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1784,6 +2908,567 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2388,16 +4073,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="167">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s" s="168">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s" s="169">
         <v>13</v>
       </c>
       <c r="D17" t="s" s="170">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s" s="171">
         <v>15</v>
@@ -2409,16 +4094,16 @@
         <v>15</v>
       </c>
       <c r="H17" t="s" s="174">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s" s="175">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J17" t="s" s="176">
         <v>17</v>
       </c>
       <c r="K17" t="s" s="177">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L17"/>
     </row>
@@ -2427,13 +4112,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s" s="179">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s" s="180">
         <v>13</v>
       </c>
       <c r="D18" t="s" s="181">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s" s="182">
         <v>15</v>
@@ -2448,7 +4133,7 @@
         <v>15</v>
       </c>
       <c r="I18" t="s" s="186">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J18" t="s" s="187">
         <v>17</v>
@@ -2457,6 +4142,616 @@
         <v>15</v>
       </c>
       <c r="L18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="189">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s" s="190">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s" s="191">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="192">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="193">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s" s="194">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s" s="195">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s" s="196">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s" s="197">
+        <v>35</v>
+      </c>
+      <c r="J19" t="s" s="198">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s" s="199">
+        <v>15</v>
+      </c>
+      <c r="L19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="200">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s" s="201">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s" s="202">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="203">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="204">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s" s="205">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s" s="206">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s" s="207">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s" s="208">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s" s="209">
+        <v>17</v>
+      </c>
+      <c r="K20" t="s" s="210">
+        <v>15</v>
+      </c>
+      <c r="L20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="211">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s" s="212">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s" s="213">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="214">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="215">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s" s="216">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s" s="217">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s" s="218">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s" s="219">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s" s="220">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s" s="221">
+        <v>15</v>
+      </c>
+      <c r="L21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="222">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s" s="223">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s" s="224">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s" s="225">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s" s="226">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s" s="227">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s" s="228">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s" s="229">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s" s="230">
+        <v>38</v>
+      </c>
+      <c r="J22" t="s" s="231">
+        <v>17</v>
+      </c>
+      <c r="K22" t="s" s="232">
+        <v>15</v>
+      </c>
+      <c r="L22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="233">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s" s="234">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s" s="235">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s" s="236">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s" s="237">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s" s="238">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s" s="239">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s" s="240">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s" s="241">
+        <v>39</v>
+      </c>
+      <c r="J23" t="s" s="242">
+        <v>17</v>
+      </c>
+      <c r="K23" t="s" s="243">
+        <v>15</v>
+      </c>
+      <c r="L23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="244">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s" s="245">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s" s="246">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s" s="247">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s" s="248">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s" s="249">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s" s="250">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s" s="251">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s" s="252">
+        <v>40</v>
+      </c>
+      <c r="J24" t="s" s="253">
+        <v>17</v>
+      </c>
+      <c r="K24" t="s" s="254">
+        <v>15</v>
+      </c>
+      <c r="L24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="255">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s" s="256">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s" s="257">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s" s="258">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="259">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s" s="260">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s" s="261">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s" s="262">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s" s="263">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s" s="264">
+        <v>17</v>
+      </c>
+      <c r="K25" t="s" s="265">
+        <v>15</v>
+      </c>
+      <c r="L25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="266">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s" s="267">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s" s="268">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s" s="269">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="270">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s" s="271">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s" s="272">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s" s="273">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s" s="274">
+        <v>42</v>
+      </c>
+      <c r="J26" t="s" s="275">
+        <v>17</v>
+      </c>
+      <c r="K26" t="s" s="276">
+        <v>15</v>
+      </c>
+      <c r="L26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="277">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s" s="278">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s" s="279">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s" s="280">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="281">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s" s="282">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s" s="283">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s" s="284">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s" s="285">
+        <v>43</v>
+      </c>
+      <c r="J27" t="s" s="286">
+        <v>17</v>
+      </c>
+      <c r="K27" t="s" s="287">
+        <v>15</v>
+      </c>
+      <c r="L27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="288">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s" s="289">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s" s="290">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s" s="291">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s" s="292">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s" s="293">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s" s="294">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s" s="295">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s" s="296">
+        <v>44</v>
+      </c>
+      <c r="J28" t="s" s="297">
+        <v>17</v>
+      </c>
+      <c r="K28" t="s" s="298">
+        <v>15</v>
+      </c>
+      <c r="L28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="299">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s" s="300">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s" s="301">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s" s="302">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s" s="303">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s" s="304">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s" s="305">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s" s="306">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s" s="307">
+        <v>45</v>
+      </c>
+      <c r="J29" t="s" s="308">
+        <v>17</v>
+      </c>
+      <c r="K29" t="s" s="309">
+        <v>15</v>
+      </c>
+      <c r="L29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="310">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s" s="311">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s" s="312">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s" s="313">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s" s="314">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s" s="315">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s" s="316">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s" s="317">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s" s="318">
+        <v>46</v>
+      </c>
+      <c r="J30" t="s" s="319">
+        <v>17</v>
+      </c>
+      <c r="K30" t="s" s="320">
+        <v>15</v>
+      </c>
+      <c r="L30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="321">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s" s="322">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s" s="323">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s" s="324">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s" s="325">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s" s="326">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s" s="327">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s" s="328">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s" s="329">
+        <v>47</v>
+      </c>
+      <c r="J31" t="s" s="330">
+        <v>17</v>
+      </c>
+      <c r="K31" t="s" s="331">
+        <v>15</v>
+      </c>
+      <c r="L31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="332">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s" s="333">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s" s="334">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s" s="335">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s" s="336">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s" s="337">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s" s="338">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s" s="339">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s" s="340">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s" s="341">
+        <v>17</v>
+      </c>
+      <c r="K32" t="s" s="342">
+        <v>51</v>
+      </c>
+      <c r="L32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="343">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s" s="344">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s" s="345">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s" s="346">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s" s="347">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s" s="348">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s" s="349">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s" s="350">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s" s="351">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s" s="352">
+        <v>17</v>
+      </c>
+      <c r="K33" t="s" s="353">
+        <v>15</v>
+      </c>
+      <c r="L33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="354">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s" s="355">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s" s="356">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s" s="357">
+        <v>54</v>
+      </c>
+      <c r="E34" t="s" s="358">
+        <v>55</v>
+      </c>
+      <c r="F34" t="s" s="359">
+        <v>56</v>
+      </c>
+      <c r="G34" t="s" s="360">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s" s="361">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s" s="362">
+        <v>57</v>
+      </c>
+      <c r="J34" t="s" s="363">
+        <v>17</v>
+      </c>
+      <c r="K34" t="s" s="364">
+        <v>15</v>
+      </c>
+      <c r="L34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="365">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s" s="366">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s" s="367">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s" s="368">
+        <v>60</v>
+      </c>
+      <c r="E35" t="s" s="369">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s" s="370">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s" s="371">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s" s="372">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s" s="373">
+        <v>61</v>
+      </c>
+      <c r="J35" t="s" s="374">
+        <v>17</v>
+      </c>
+      <c r="K35" s="375"/>
+      <c r="L35"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/TestResults/GeoOrgStdGraphQL.xlsx
+++ b/TestResults/GeoOrgStdGraphQL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="63">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -108,13 +108,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_orgStdCd: ISO
-DB_orgStdCd: ISO
-Response_orgStdNm: International Organization for Standardization
-DB_orgStdNm: International Organization for Standardization
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Response_orgStdCd: OrgTest8
 DB_orgStdCd: OrgTest8
 Response_orgStdNm: Organisation Test8
@@ -189,6 +182,13 @@
 DB_orgStdCd: Test_QH
 Response_orgStdNm: DescAnpiH
 DB_orgStdNm: DescAnpiH
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: ISO
+DB_orgStdCd: ISO
+Response_orgStdNm: International Organization for Standardization
+DB_orgStdNm: International Organization for Standardization
 </t>
   </si>
   <si>
@@ -329,26 +329,40 @@
     <t>NA</t>
   </si>
   <si>
+    <t>400</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 {
 	"meta":
 	{
 		"version":"1.0.0",
-		"errors":
-		[
+		"transactionId":"353c9e31-dcfb-4761-b062-f23c1a63f1d9",
+		"timeStamp":"2020-07-14T07:49:53.758+0000",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
 			{
-				"error":"ValidationError",
-				"message":"Validation error of type FieldUndefined: Field 'organizationStandardCodes1' in type 'GeoPoliticalOrganizationStandard' is undefined @ 'geopoliticalOrganizationStandards/organizationStandardCodes1'",
-				"path":null
-			},
-			{
-				"error":"ValidationError",
-				"message":"Validation error of type FieldUndefined: Field 'organizationStandardNames1' in type 'GeoPoliticalOrganizationStandard' is undefined @ 'geopoliticalOrganizationStandards/organizationStandardNames1'",
-				"path":null
+				"errorMessage":"Request Submitted With Error"
 			}
-		]
+		}
 	},
-	"data":null
+	"errors":
+	[
+		{
+			"error":"ValidationError",
+			"message":"Validation error of type FieldUndefined: Field 'organizationStandardCodes1' in type 'GeoPoliticalOrganizationStandard' is undefined @ 'geopoliticalOrganizationStandards/organizationStandardCodes1'",
+			"path":null
+		},
+		{
+			"error":"ValidationError",
+			"message":"Validation error of type FieldUndefined: Field 'organizationStandardNames1' in type 'GeoPoliticalOrganizationStandard' is undefined @ 'geopoliticalOrganizationStandards/organizationStandardNames1'",
+			"path":null
+		}
+	]
 }</t>
   </si>
   <si>
@@ -375,9 +389,15 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"errors":
-		[
-		]
+		"transactionId":"aa3a57a1-4fac-436a-b4ad-00524bb244de",
+		"timeStamp":"2020-07-14T07:49:55.264+0000",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":null,
+			"data":null
+		}
 	},
 	"data":
 	{
@@ -4706,10 +4726,10 @@
         <v>15</v>
       </c>
       <c r="H34" t="s" s="361">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I34" t="s" s="362">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J34" t="s" s="363">
         <v>17</v>
@@ -4721,16 +4741,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="365">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s" s="366">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s" s="367">
         <v>13</v>
       </c>
       <c r="D35" t="s" s="368">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s" s="369">
         <v>15</v>
@@ -4745,7 +4765,7 @@
         <v>16</v>
       </c>
       <c r="I35" t="s" s="373">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J35" t="s" s="374">
         <v>17</v>

--- a/TestResults/GeoOrgStdGraphQL.xlsx
+++ b/TestResults/GeoOrgStdGraphQL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="77">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -157,6 +157,13 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Response_orgStdCd: ISO
+DB_orgStdCd: ISO
+Response_orgStdNm: International Organization for Standardization
+DB_orgStdNm: International Organization for Standardization
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Response_orgStdCd: Test_QD
 DB_orgStdCd: Test_QD
 Response_orgStdNm: DescAnpiD
@@ -185,13 +192,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_orgStdCd: ISO
-DB_orgStdCd: ISO
-Response_orgStdNm: International Organization for Standardization
-DB_orgStdNm: International Organization for Standardization
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Response_orgStdCd: OrgTest7
 DB_orgStdCd: OrgTest7
 Response_orgStdNm: Organisation Test7
@@ -220,17 +220,17 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Response_orgStdCd: CLDR
+DB_orgStdCd: CLDR
+Response_orgStdNm: Unicode Common Locale Data Repository
+DB_orgStdNm: Unicode Common Locale Data Repository
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Response_orgStdCd: Test_QG
 DB_orgStdCd: Test_QG
 Response_orgStdNm: DescAnpiG
 DB_orgStdNm: DescAnpiG
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_orgStdCd: CLDR
-DB_orgStdCd: CLDR
-Response_orgStdNm: Unicode Common Locale Data Repository
-DB_orgStdNm: Unicode Common Locale Data Repository
 </t>
   </si>
   <si>
@@ -337,8 +337,8 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"transactionId":"353c9e31-dcfb-4761-b062-f23c1a63f1d9",
-		"timeStamp":"2020-07-14T07:49:53.758+0000",
+		"transactionId":"37c1bae0-54f0-4972-b8f2-ec7b58a92230",
+		"timeStamp":"2020-07-16T09:33:17.538+0000",
 		"statusCode":"400",
 		"message":
 		{
@@ -389,8 +389,8 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"transactionId":"aa3a57a1-4fac-436a-b4ad-00524bb244de",
-		"timeStamp":"2020-07-14T07:49:55.264+0000",
+		"transactionId":"b7c20b80-5f67-43dd-9759-55f956e8ceb5",
+		"timeStamp":"2020-07-16T09:33:19.133+0000",
 		"statusCode":"200",
 		"message":
 		{
@@ -407,13 +407,157 @@
 	}
 }</t>
   </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Verify the error message when passing the expired token</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"f51d198a-9ceb-4892-abd8-b1a578dc5e29",
+		"timeStamp":"2020-07-16T09:33:20.725+0000",
+		"statusCode":"401",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Security Error",
+			"data":
+			{
+				"errorMessage":"Exception occurred in Security Filter"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"NA",
+			"message":"Unable to find a certificate that can decode the token.  This can happen if the token was encrypted using a test certificate and running on production or if the public certificate was not loaded to LDAP.  Token: 'v1:APP3534861:CNs7wqTWQDe1xJivTxQcPl9+b94XKxfVKC9WQbULqn5hKunN9PKQwv+E7ZXK/Qwqpsf66XzflXZVcQOpMk+tufNG3awVeYy9FQeqY+tosnt7ONkSHd8I3sIUXHEEuVXEBKJe1pUoVOauy1BvIPMQeYDP2HmxtaiZ5zlXuu2nXI4=:APP3534861'. Ldap URL:'ldap://dirtest.corp.fedex.com:389/ou=people,
+			o=fedex,
+			c=us'. Number of valid certificates found:1"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>Verify the error message when passing the invalid token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"d959440c-bf2a-4562-a193-ca94b84fb619",
+		"timeStamp":"2020-07-16T09:33:22.147+0000",
+		"statusCode":"401",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Security Error",
+			"data":
+			{
+				"errorMessage":"Exception occurred in Security Filter"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"NA",
+			"message":"Input byte array has wrong 4-byte ending unit"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when missing HTTP Header X-CSR-SECURITY_TOKEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"33ceff6e-12d1-4ef3-a4c2-998fb4668f4d",
+		"timeStamp":"2020-07-16T09:33:23.381+0000",
+		"statusCode":"401",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Security Error",
+			"data":
+			{
+				"errorMessage":"Exception occurred in Security Filter"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"NA",
+			"message":"Missing HTTP header X-CSR-SECURITY_TOKEN"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when passing blank token value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"38b2739a-76c9-4d0a-9350-5ae97a1483bd",
+		"timeStamp":"2020-07-16T09:33:24.676+0000",
+		"statusCode":"401",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Security Error",
+			"data":
+			{
+				"errorMessage":"Exception occurred in Security Filter"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"NA",
+			"message":"Missing HTTP header X-CSR-SECURITY_TOKEN"
+		}
+	]
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="376">
+  <fonts count="420">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -426,6 +570,226 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2364,7 +2728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="376">
+  <cellXfs count="420">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -3489,6 +3853,138 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="375" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4773,6 +5269,150 @@
       <c r="K35" s="375"/>
       <c r="L35"/>
     </row>
+    <row r="36">
+      <c r="A36" t="s" s="376">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s" s="377">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s" s="378">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s" s="379">
+        <v>56</v>
+      </c>
+      <c r="E36" t="s" s="380">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s" s="381">
+        <v>56</v>
+      </c>
+      <c r="G36" t="s" s="382">
+        <v>65</v>
+      </c>
+      <c r="H36" t="s" s="383">
+        <v>66</v>
+      </c>
+      <c r="I36" t="s" s="384">
+        <v>67</v>
+      </c>
+      <c r="J36" t="s" s="385">
+        <v>17</v>
+      </c>
+      <c r="K36" t="s" s="386">
+        <v>15</v>
+      </c>
+      <c r="L36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="387">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s" s="388">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s" s="389">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s" s="390">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s" s="391">
+        <v>55</v>
+      </c>
+      <c r="F37" t="s" s="392">
+        <v>56</v>
+      </c>
+      <c r="G37" t="s" s="393">
+        <v>65</v>
+      </c>
+      <c r="H37" t="s" s="394">
+        <v>66</v>
+      </c>
+      <c r="I37" t="s" s="395">
+        <v>70</v>
+      </c>
+      <c r="J37" t="s" s="396">
+        <v>17</v>
+      </c>
+      <c r="K37" t="s" s="397">
+        <v>15</v>
+      </c>
+      <c r="L37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="398">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s" s="399">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s" s="400">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s" s="401">
+        <v>56</v>
+      </c>
+      <c r="E38" t="s" s="402">
+        <v>55</v>
+      </c>
+      <c r="F38" t="s" s="403">
+        <v>56</v>
+      </c>
+      <c r="G38" t="s" s="404">
+        <v>65</v>
+      </c>
+      <c r="H38" t="s" s="405">
+        <v>66</v>
+      </c>
+      <c r="I38" t="s" s="406">
+        <v>73</v>
+      </c>
+      <c r="J38" t="s" s="407">
+        <v>17</v>
+      </c>
+      <c r="K38" t="s" s="408">
+        <v>15</v>
+      </c>
+      <c r="L38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="409">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s" s="410">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s" s="411">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s" s="412">
+        <v>56</v>
+      </c>
+      <c r="E39" t="s" s="413">
+        <v>55</v>
+      </c>
+      <c r="F39" t="s" s="414">
+        <v>56</v>
+      </c>
+      <c r="G39" t="s" s="415">
+        <v>65</v>
+      </c>
+      <c r="H39" t="s" s="416">
+        <v>66</v>
+      </c>
+      <c r="I39" t="s" s="417">
+        <v>76</v>
+      </c>
+      <c r="J39" t="s" s="418">
+        <v>17</v>
+      </c>
+      <c r="K39" t="s" s="419">
+        <v>15</v>
+      </c>
+      <c r="L39"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
